--- a/assign1/doc/data.xlsx
+++ b/assign1/doc/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d24120576c9b3552/Ambiente de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d24120576c9b3552/Ambiente de Trabalho/g17/assign1/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21856E9-E106-4C84-B023-7EF12599D386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{F21856E9-E106-4C84-B023-7EF12599D386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE467355-662A-4C66-801E-28673EFDCC35}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E5D3F4E-819A-49D0-B783-CAF2EE6E08DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6E5D3F4E-819A-49D0-B783-CAF2EE6E08DE}"/>
   </bookViews>
   <sheets>
     <sheet name="ex1" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="37">
   <si>
     <t>Algorithm 1 - C++</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Algorithm 4 - C++</t>
+  </si>
+  <si>
+    <t>FLOP</t>
   </si>
 </sst>
 </file>
@@ -7184,7 +7187,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-PT" sz="1400" baseline="0"/>
-              <a:t> vs. Multi (GFLOPS)</a:t>
+              <a:t> vs. Multi (FLOPS)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7243,7 +7246,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Single Core</c:v>
+            <c:v>Line</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
@@ -7316,21 +7319,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ex2'!$J$14:$J$17</c:f>
+              <c:f>'ex2'!$K$14:$K$17</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>137438953477</c:v>
+                  <c:v>4211655486.0723805</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>463856467973</c:v>
+                  <c:v>4118519253.5804029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1099511627781</c:v>
+                  <c:v>4173685854.3381958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2147483648005</c:v>
+                  <c:v>4269529439.6088109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7346,7 +7349,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Multi Core</c:v>
+            <c:v>Parallel 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
@@ -7419,21 +7422,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ex1-part2'!$J$6:$J$9</c:f>
+              <c:f>'ex1-part2'!$K$6:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8589934597</c:v>
+                  <c:v>19203430694.005867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28991029253</c:v>
+                  <c:v>14607352164.163124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68719476741</c:v>
+                  <c:v>13464671717.52042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134217728005</c:v>
+                  <c:v>13331534972.684889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7442,6 +7445,109 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D235-4369-9EA7-FC664E14A663}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Parallel 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ex2'!$L$14:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ex2-part2'!$K$7:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5410343403.4169197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5780358991.2769327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6903011224.1398792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6694338831.2172098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1479-4865-8EAD-FF10BADB4D06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7596,7 +7702,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7632,9 +7738,6 @@
         <c:crossAx val="194969584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:dispUnits>
-          <c:builtInUnit val="billions"/>
-        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7652,8 +7755,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.28041073268208339"/>
           <c:y val="0.16120809088390137"/>
-          <c:w val="0.49684599336325563"/>
-          <c:h val="9.3516864007959111E-2"/>
+          <c:w val="0.60755615607220692"/>
+          <c:h val="8.964206167456161E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -15055,7 +15158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11F6A8C-D525-423F-9666-79FA074474B9}">
   <dimension ref="B2:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="Z14" sqref="Z14:AE24"/>
     </sheetView>
   </sheetViews>
@@ -16018,8 +16121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F188DDC-A872-431D-A88E-94C5B3ECFDC0}">
   <dimension ref="B3:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16027,6 +16130,7 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16066,6 +16170,9 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
         <v>33</v>
       </c>
       <c r="L6" t="s">
@@ -16348,6 +16455,10 @@
       <c r="J14" s="1">
         <v>137438953477</v>
       </c>
+      <c r="K14">
+        <f>J14/I14</f>
+        <v>4211655486.0723805</v>
+      </c>
       <c r="L14">
         <v>4096</v>
       </c>
@@ -16385,6 +16496,10 @@
       <c r="J15" s="1">
         <v>463856467973</v>
       </c>
+      <c r="K15">
+        <f t="shared" ref="K15:K17" si="3">J15/I15</f>
+        <v>4118519253.5804029</v>
+      </c>
       <c r="L15">
         <v>6144</v>
       </c>
@@ -16422,6 +16537,10 @@
       <c r="J16" s="1">
         <v>1099511627781</v>
       </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>4173685854.3381958</v>
+      </c>
       <c r="L16">
         <v>8192</v>
       </c>
@@ -16459,6 +16578,10 @@
       <c r="J17" s="1">
         <v>2147483648005</v>
       </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>4269529439.6088109</v>
+      </c>
       <c r="L17">
         <v>10240</v>
       </c>
@@ -16548,7 +16671,7 @@
         <v>128538825</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I31" si="3">ROUND(AVERAGE(C22:H22),0)</f>
+        <f t="shared" ref="I22:I31" si="4">ROUND(AVERAGE(C22:H22),0)</f>
         <v>128763251</v>
       </c>
     </row>
@@ -16575,7 +16698,7 @@
         <v>357681175</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>359001060</v>
       </c>
     </row>
@@ -16602,7 +16725,7 @@
         <v>792130970</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>794030192</v>
       </c>
     </row>
@@ -16629,7 +16752,7 @@
         <v>2135444122</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2138288568</v>
       </c>
     </row>
@@ -16656,7 +16779,7 @@
         <v>4394214076</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4397006957</v>
       </c>
     </row>
@@ -16683,7 +16806,7 @@
         <v>6763905845</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6765509576</v>
       </c>
     </row>
@@ -16737,7 +16860,7 @@
         <v>58362796987</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58363125112</v>
       </c>
     </row>
@@ -16764,7 +16887,7 @@
         <v>138312606020</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>138301714661</v>
       </c>
     </row>
@@ -16791,7 +16914,7 @@
         <v>270302489745</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>270193149588</v>
       </c>
     </row>
@@ -16876,7 +16999,7 @@
         <v>572384</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:I45" si="4">ROUND(AVERAGE(C36:H36),0)</f>
+        <f t="shared" ref="I36:I45" si="5">ROUND(AVERAGE(C36:H36),0)</f>
         <v>583976</v>
       </c>
     </row>
@@ -16903,7 +17026,7 @@
         <v>1792366</v>
       </c>
       <c r="I37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1671207</v>
       </c>
     </row>
@@ -16930,7 +17053,7 @@
         <v>7857858</v>
       </c>
       <c r="I38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7953509</v>
       </c>
     </row>
@@ -16957,7 +17080,7 @@
         <v>28636942</v>
       </c>
       <c r="I39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28637796</v>
       </c>
     </row>
@@ -16984,7 +17107,7 @@
         <v>58570784</v>
       </c>
       <c r="I40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54823997</v>
       </c>
     </row>
@@ -17011,7 +17134,7 @@
         <v>142398765</v>
       </c>
       <c r="I41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>133182944</v>
       </c>
     </row>
@@ -17038,7 +17161,7 @@
         <v>350162601</v>
       </c>
       <c r="I42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>350581885</v>
       </c>
     </row>
@@ -17065,7 +17188,7 @@
         <v>1301987190</v>
       </c>
       <c r="I43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1284092803</v>
       </c>
     </row>
@@ -17092,7 +17215,7 @@
         <v>2827195768</v>
       </c>
       <c r="I44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2892715128</v>
       </c>
     </row>
@@ -17119,7 +17242,7 @@
         <v>4883005318</v>
       </c>
       <c r="I45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5241084161</v>
       </c>
     </row>
@@ -17209,7 +17332,7 @@
         <v>115.774</v>
       </c>
       <c r="I52">
-        <f t="shared" ref="I52:I57" si="5">ROUND(AVERAGE(C52:H52),3)</f>
+        <f t="shared" ref="I52:I57" si="6">ROUND(AVERAGE(C52:H52),3)</f>
         <v>115.209</v>
       </c>
     </row>
@@ -17236,7 +17359,7 @@
         <v>315.863</v>
       </c>
       <c r="I53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>315.40699999999998</v>
       </c>
     </row>
@@ -17263,7 +17386,7 @@
         <v>687.74699999999996</v>
       </c>
       <c r="I54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>688.80899999999997</v>
       </c>
     </row>
@@ -17290,7 +17413,7 @@
         <v>1237.7090000000001</v>
       </c>
       <c r="I55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1236.973</v>
       </c>
     </row>
@@ -17317,7 +17440,7 @@
         <v>1974.731</v>
       </c>
       <c r="I56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1974.5909999999999</v>
       </c>
     </row>
@@ -17344,7 +17467,7 @@
         <v>3117.2139999999999</v>
       </c>
       <c r="I57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3111.424</v>
       </c>
     </row>
@@ -17358,8 +17481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96421687-53A1-4F48-A4EB-7003D094333A}">
   <dimension ref="B2:R82"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="77" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17369,28 +17492,29 @@
     <col min="7" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
     <col min="10" max="10" width="28.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" customWidth="1"/>
     <col min="13" max="13" width="26.7109375" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
     <col min="15" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -17416,10 +17540,13 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -17448,8 +17575,12 @@
       <c r="J7" s="1">
         <v>137438953477</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f>J7/I7</f>
+        <v>5340753613.0022535</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -17478,8 +17609,12 @@
       <c r="J8" s="1">
         <v>463856467973</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" ref="K8:K10" si="1">J8/I8</f>
+        <v>5519275465.8091688</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -17508,8 +17643,12 @@
       <c r="J9" s="1">
         <v>1099511627781</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>4751685989.1829519</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -17538,20 +17677,24 @@
       <c r="J10" s="1">
         <v>2147483648005</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>5661970902.9297466</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -17577,7 +17720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -17604,7 +17747,7 @@
         <v>11742221187.5</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -17910,9 +18053,6 @@
       <c r="I34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J34" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -17940,9 +18080,7 @@
         <f t="shared" si="0"/>
         <v>20.28</v>
       </c>
-      <c r="J35" s="1">
-        <v>137438953477</v>
-      </c>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -17970,9 +18108,7 @@
         <f t="shared" si="0"/>
         <v>69.700999999999993</v>
       </c>
-      <c r="J36" s="1">
-        <v>463856467973</v>
-      </c>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
@@ -18000,9 +18136,7 @@
         <f t="shared" si="0"/>
         <v>227.70099999999999</v>
       </c>
-      <c r="J37" s="1">
-        <v>1099511627781</v>
-      </c>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -18030,9 +18164,7 @@
         <f t="shared" si="0"/>
         <v>323.63</v>
       </c>
-      <c r="J38" s="1">
-        <v>2147483648005</v>
-      </c>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I39" s="4"/>
@@ -18381,9 +18513,6 @@
       <c r="I62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J62" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
@@ -18411,9 +18540,7 @@
         <f>ROUND(AVERAGE(C63:H63),4)</f>
         <v>27.475200000000001</v>
       </c>
-      <c r="J63" s="1">
-        <v>137438953477</v>
-      </c>
+      <c r="J63" s="1"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
@@ -18438,12 +18565,10 @@
         <v>65.471000000000004</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" ref="I64:I66" si="1">ROUND(AVERAGE(C64:H64),4)</f>
+        <f t="shared" ref="I64:I66" si="2">ROUND(AVERAGE(C64:H64),4)</f>
         <v>66.186700000000002</v>
       </c>
-      <c r="J64" s="1">
-        <v>463856467973</v>
-      </c>
+      <c r="J64" s="1"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
@@ -18468,12 +18593,10 @@
         <v>157.435</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>158.42320000000001</v>
       </c>
-      <c r="J65" s="1">
-        <v>1099511627781</v>
-      </c>
+      <c r="J65" s="1"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
@@ -18498,12 +18621,10 @@
         <v>287.66800000000001</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>291.68979999999999</v>
       </c>
-      <c r="J66" s="1">
-        <v>2147483648005</v>
-      </c>
+      <c r="J66" s="1"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I67" s="4"/>
@@ -18742,7 +18863,7 @@
         <v>964983639</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" ref="I79:I82" si="2">ROUND(AVERAGE(C79:H79),3)</f>
+        <f t="shared" ref="I79:I82" si="3">ROUND(AVERAGE(C79:H79),3)</f>
         <v>987128620.33299994</v>
       </c>
     </row>
@@ -18769,7 +18890,7 @@
         <v>2884281756</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2928529913.8330002</v>
       </c>
     </row>
@@ -18796,7 +18917,7 @@
         <v>9094516483</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9159490255.8330002</v>
       </c>
     </row>
@@ -18823,7 +18944,7 @@
         <v>13303389332</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13418431201.333</v>
       </c>
     </row>
@@ -18837,8 +18958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3913018C-7325-42D2-9BB2-2291AED3C8E7}">
   <dimension ref="B2:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18851,6 +18972,7 @@
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="17.140625" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
@@ -18889,6 +19011,9 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -18918,8 +19043,12 @@
         <f>ROUND(AVERAGE(C6:H6),3)</f>
         <v>7.157</v>
       </c>
-      <c r="J6">
-        <v>8589934597</v>
+      <c r="J6" s="1">
+        <v>137438953477</v>
+      </c>
+      <c r="K6">
+        <f>J6/I6</f>
+        <v>19203430694.005867</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -18948,8 +19077,12 @@
         <f>ROUND(AVERAGE(C7:H7),3)</f>
         <v>31.754999999999999</v>
       </c>
-      <c r="J7">
-        <v>28991029253</v>
+      <c r="J7" s="1">
+        <v>463856467973</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K9" si="0">J7/I7</f>
+        <v>14607352164.163124</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
@@ -18978,8 +19111,12 @@
         <f>ROUND(AVERAGE(C8:H8),3)</f>
         <v>81.659000000000006</v>
       </c>
-      <c r="J8">
-        <v>68719476741</v>
+      <c r="J8" s="1">
+        <v>1099511627781</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>13464671717.52042</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -19008,8 +19145,12 @@
         <f>ROUND(AVERAGE(C9:H9),3)</f>
         <v>161.083</v>
       </c>
-      <c r="J9">
-        <v>134217728005</v>
+      <c r="J9" s="1">
+        <v>2147483648005</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>13331534972.684889</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
@@ -19325,7 +19466,7 @@
   <dimension ref="B3:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19333,19 +19474,20 @@
     <col min="3" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -19374,7 +19516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -19399,11 +19541,15 @@
       <c r="I7">
         <v>25.402999999999999</v>
       </c>
-      <c r="J7">
-        <v>8589934597</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>137438953477</v>
+      </c>
+      <c r="K7">
+        <f>J7/I7</f>
+        <v>5410343403.4169197</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -19428,11 +19574,15 @@
       <c r="I8">
         <v>80.247</v>
       </c>
-      <c r="J8">
-        <v>28991029253</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <v>463856467973</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K10" si="0">J8/I8</f>
+        <v>5780358991.2769327</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -19457,11 +19607,15 @@
       <c r="I9">
         <v>159.28</v>
       </c>
-      <c r="J9">
-        <v>68719476741</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>1099511627781</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>6903011224.1398792</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -19486,21 +19640,25 @@
       <c r="I10">
         <v>320.791</v>
       </c>
-      <c r="J10">
-        <v>134217728005</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="1">
+        <v>2147483648005</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>6694338831.2172098</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1.0009999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -19526,7 +19684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -19553,7 +19711,7 @@
         <v>803227401</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -19831,15 +19989,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A6AC9AE00E36404AA0D09428E6D89785" ma:contentTypeVersion="6" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6a9afc72dc0e96de1818a842d02fb72b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="02d2e0a1-130d-4568-9caa-f904ac99494b" xmlns:ns4="c5de1c3e-7813-4da7-ba52-5366b85aaf02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="419597d90b9580e89989f7d50df73041" ns3:_="" ns4:_="">
     <xsd:import namespace="02d2e0a1-130d-4568-9caa-f904ac99494b"/>
@@ -20016,6 +20165,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137EBDE3-262D-4439-96A8-C4D71C623ADC}">
   <ds:schemaRefs>
@@ -20034,14 +20192,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61086091-CF3F-4F65-B6F4-A544870C8396}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B01BBB31-99E3-49C4-ADEB-936D1E4411FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20058,4 +20208,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61086091-CF3F-4F65-B6F4-A544870C8396}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>